--- a/Documents/Condensado-SoftwareLibre.xlsx
+++ b/Documents/Condensado-SoftwareLibre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Software libre\Proyecto aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Github\BotnetsHeterogeneas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAF7F3-1E97-4CB0-86ED-2A74372200EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0B455-F0A7-4456-BF7E-6B071D8CFA06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Objetivo 2: Desarrollar algoritmos desde el modelo de una Botnet con nodos maestros intercambiables y asignación dinámica de cargas.</t>
   </si>
   <si>
-    <t>Objetivo 4: Socializar y liberar los resultados del proyecto.</t>
-  </si>
-  <si>
     <t>Modelado, diseño e implementación de una Botnet heterogenea para la ejecución de ataques coordinados</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Documento donde se deje constancia de la planeación del sistema, y los algoritmos del proyecto.</t>
+  </si>
+  <si>
+    <t>Objetivo 4: Compilar el projecto para su culminación</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G14"/>
+      <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -980,7 +980,7 @@
     </row>
     <row r="9" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
@@ -1001,7 +1001,7 @@
     <row r="10" spans="2:7" ht="48" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="10">
         <v>2</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10">
         <v>6</v>
@@ -1031,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
       <c r="C12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14">
         <v>6</v>
@@ -1053,7 +1053,7 @@
     <row r="13" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10">
         <v>6</v>
@@ -1069,7 +1069,7 @@
     <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="14">
         <v>6</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="15" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10">
         <v>4</v>
@@ -1099,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
       <c r="C16" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="10">
         <v>4</v>
@@ -1121,7 +1121,7 @@
     <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10">
         <v>4</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="10">
         <v>3</v>
@@ -1148,16 +1148,16 @@
         <v>18</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10">
         <v>3</v>
@@ -1166,14 +1166,14 @@
         <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="10">
         <v>3</v>
@@ -1182,14 +1182,14 @@
         <v>18</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
@@ -1225,23 +1225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100998B25A2CAB3C44BA687BFEA0D537743" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff1a93f518ef30556e0fdac0d48e63c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72066420d13199d1bd6868c656828e6f" ns2:_="">
     <xsd:import namespace="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
@@ -1379,10 +1362,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19205030-CB38-4FA8-90E9-E4B5ABC51BCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1398,19 +1408,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19205030-CB38-4FA8-90E9-E4B5ABC51BCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Condensado-SoftwareLibre.xlsx
+++ b/Documents/Condensado-SoftwareLibre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Github\BotnetsHeterogeneas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0B455-F0A7-4456-BF7E-6B071D8CFA06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14E6CB-30AD-4C18-B34D-B0F0D2054106}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>FORMATO CONDENSADO DEL PROYECTO DE AULA / INTEGRADOR</t>
   </si>
@@ -92,15 +92,9 @@
     <t>Lunes 22 de Abril</t>
   </si>
   <si>
-    <t>Objetivo 2: Desarrollar algoritmos desde el modelo de una Botnet con nodos maestros intercambiables y asignación dinámica de cargas.</t>
-  </si>
-  <si>
     <t>Modelado, diseño e implementación de una Botnet heterogenea para la ejecución de ataques coordinados</t>
   </si>
   <si>
-    <t>Generar un proyecto de software libre para la interconexión de máquinas en una Botnet destinada para realizar ataques del tipo de denegación de servicios.</t>
-  </si>
-  <si>
     <t>Objetivo 1: Determinar las caracteristica de la conexión entre distintas maquinas en una LAN mediante herramientas de software libre previamente diseñadas.</t>
   </si>
   <si>
@@ -116,18 +110,6 @@
     <t>Actividad 2.3. : Diseñar el algoritmo para la asignación de nodos maestros.</t>
   </si>
   <si>
-    <t>Actividad 4.1. : Licenciar el proyecto como software libre.</t>
-  </si>
-  <si>
-    <t>Actividad 4.2. : Documentar el desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Actividad 4.3. : Elaborar un video de máximo tres minutos sobre el proyecto</t>
-  </si>
-  <si>
-    <t>Actividad 4.4. :  Presentar los resultados en la Jornada de Socialización de Proyectos Integradores y de Aula</t>
-  </si>
-  <si>
     <t>Actividad 2.4. : Diseñar el algoritmo de conexión entre los dispositivos microcontrolados y el nodo maestro.</t>
   </si>
   <si>
@@ -146,16 +128,31 @@
     <t>Lunes 7 de Mayo</t>
   </si>
   <si>
-    <t>Objetivo 3: Acoplar las partes lógicas y físicas del proyecto.</t>
-  </si>
-  <si>
     <t>Repositorio del proyecto.</t>
   </si>
   <si>
     <t>Documento donde se deje constancia de la planeación del sistema, y los algoritmos del proyecto.</t>
   </si>
   <si>
-    <t>Objetivo 4: Compilar el projecto para su culminación</t>
+    <t>Objetivo 2: Diseñar algoritmos que sustenten el modelo de una Botnet con nodos maestros intercambiables y asignación dinámica de cargas.</t>
+  </si>
+  <si>
+    <t>Objetivo 3: Integrar las partes lógicas y físicas del proyecto, aplicando el conjunto de normas de la licencia GNU/GPLv3 de software libre.</t>
+  </si>
+  <si>
+    <t>Actividad 3.4. : Licenciar el proyecto como software libre.</t>
+  </si>
+  <si>
+    <t>Actividad 3.5. : Documentar el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Actividad 3.6. : Elaborar un video de máximo tres minutos sobre el proyecto</t>
+  </si>
+  <si>
+    <t>Actividad 3.7. :  Presentar los resultados en la Jornada de Socialización de Proyectos Integradores y de Aula</t>
+  </si>
+  <si>
+    <t>Generar un proyecto de software libre para la interconexión de máquinas en una Botnet destinada a realizar ataques de denegación distribuida de servicios (DDOS).</t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -460,11 +457,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -490,57 +500,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -581,6 +588,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -868,8 +881,8 @@
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,78 +898,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -979,222 +992,220 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>22</v>
+      <c r="B9" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="F12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D13" s="9">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="15" t="s">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D14" s="13">
         <v>6</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="6" t="s">
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="16" t="s">
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="17" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="F20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10">
-        <v>3</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,21 +1213,20 @@
     <row r="25" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.52" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1225,6 +1235,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100998B25A2CAB3C44BA687BFEA0D537743" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff1a93f518ef30556e0fdac0d48e63c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72066420d13199d1bd6868c656828e6f" ns2:_="">
     <xsd:import namespace="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
@@ -1362,24 +1389,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7B47E3-819B-4027-804C-AF44DA1A5FB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19205030-CB38-4FA8-90E9-E4B5ABC51BCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1395,22 +1423,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7B47E3-819B-4027-804C-AF44DA1A5FB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Condensado-SoftwareLibre.xlsx
+++ b/Documents/Condensado-SoftwareLibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Github\BotnetsHeterogeneas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14E6CB-30AD-4C18-B34D-B0F0D2054106}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78D0CAF-FF48-460E-ACF1-71C592679EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>FORMATO CONDENSADO DEL PROYECTO DE AULA / INTEGRADOR</t>
   </si>
@@ -74,33 +74,9 @@
     <t>ENTREGABLES</t>
   </si>
   <si>
-    <t>Actividad 1.1. : Lectura e investigación sobre la red LAN y su aplicabilidad para el ataque mediante una Botnet con un licenciamiento en software libre.</t>
-  </si>
-  <si>
-    <t>Miercoles 5 de Febrero</t>
-  </si>
-  <si>
-    <t>Sabado 16 de Febrero</t>
-  </si>
-  <si>
-    <t>Documento con la respectiva  indagación del proyecto a realizar.</t>
-  </si>
-  <si>
-    <t>Sábado 23 de Marzo</t>
-  </si>
-  <si>
-    <t>Lunes 22 de Abril</t>
-  </si>
-  <si>
     <t>Modelado, diseño e implementación de una Botnet heterogenea para la ejecución de ataques coordinados</t>
   </si>
   <si>
-    <t>Objetivo 1: Determinar las caracteristica de la conexión entre distintas maquinas en una LAN mediante herramientas de software libre previamente diseñadas.</t>
-  </si>
-  <si>
-    <t>Actividad 1.2. : Caracterizar los diferentes ataques con malware, y cómo aplicarlo a una maquina para ser una amenaza para la inestabilidad e integridad de una infraestructura en una red LAN.</t>
-  </si>
-  <si>
     <t>Actividad 2.1. :Diseñar la red LAN donde se implementará la Botnet para pruebas.</t>
   </si>
   <si>
@@ -122,24 +98,6 @@
     <t>Actividad 3.2. : Implementar los algoritmos desarrollados para la conexión, y asignación de nodos.</t>
   </si>
   <si>
-    <t>Documento con el desarrollo del 100% del proyecto, intrucciones, aplicativo, licencia de software libre.</t>
-  </si>
-  <si>
-    <t>Lunes 7 de Mayo</t>
-  </si>
-  <si>
-    <t>Repositorio del proyecto.</t>
-  </si>
-  <si>
-    <t>Documento donde se deje constancia de la planeación del sistema, y los algoritmos del proyecto.</t>
-  </si>
-  <si>
-    <t>Objetivo 2: Diseñar algoritmos que sustenten el modelo de una Botnet con nodos maestros intercambiables y asignación dinámica de cargas.</t>
-  </si>
-  <si>
-    <t>Objetivo 3: Integrar las partes lógicas y físicas del proyecto, aplicando el conjunto de normas de la licencia GNU/GPLv3 de software libre.</t>
-  </si>
-  <si>
     <t>Actividad 3.4. : Licenciar el proyecto como software libre.</t>
   </si>
   <si>
@@ -153,16 +111,76 @@
   </si>
   <si>
     <t>Generar un proyecto de software libre para la interconexión de máquinas en una Botnet destinada a realizar ataques de denegación distribuida de servicios (DDOS).</t>
+  </si>
+  <si>
+    <t>Febrero 3 de 2020</t>
+  </si>
+  <si>
+    <t>Febrero 27 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 4 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 8 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 9 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 16 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 17 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 23 de 2020</t>
+  </si>
+  <si>
+    <t>Marzo 12 de 2020</t>
+  </si>
+  <si>
+    <t>Abril 12 de 2020</t>
+  </si>
+  <si>
+    <t>Abril 13 de 2020</t>
+  </si>
+  <si>
+    <t>Mayo 3 de 2020</t>
+  </si>
+  <si>
+    <t>Mayo 4 de 2020</t>
+  </si>
+  <si>
+    <t>Mayo 13 de 2020</t>
+  </si>
+  <si>
+    <t>Actividad 1.1. : Lectura e investigación sobre los sistemas distribuidos de tipo grid.</t>
+  </si>
+  <si>
+    <t>Febrero 25 de 2020</t>
+  </si>
+  <si>
+    <t>Marco teórico de arquitecturas grid, arquitectura del proyecto.</t>
+  </si>
+  <si>
+    <t>Actividad 1.2. : Determinar la arquitectura del sistema distribuido.</t>
+  </si>
+  <si>
+    <t>Objetivo 2: Establecer la comunicación de la infraestructura grid de alta disponibilidad.</t>
+  </si>
+  <si>
+    <t>Objetivo 1: Diseñar la arquitectura del sistema distribuido grid.</t>
+  </si>
+  <si>
+    <t>Objetivo 3: Implementar la extracción de atributos para la obtención de un dataset.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +226,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -500,33 +525,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -545,31 +561,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,11 +606,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,8 +912,8 @@
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,78 +929,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -992,220 +1023,184 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="37">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31"/>
+      <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="D16" s="40">
+        <v>4</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="39">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="E18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="39">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="14" t="s">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="6" t="s">
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9">
-        <v>6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9">
-        <v>4</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1208,9 @@
     <row r="25" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -1235,23 +1232,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100998B25A2CAB3C44BA687BFEA0D537743" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff1a93f518ef30556e0fdac0d48e63c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72066420d13199d1bd6868c656828e6f" ns2:_="">
     <xsd:import namespace="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
@@ -1389,10 +1369,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7">01bf0ed4-4336-4cf2-85c6-8360b4bb7c6a</ReferenceId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19205030-CB38-4FA8-90E9-E4B5ABC51BCC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1408,19 +1415,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19205030-CB38-4FA8-90E9-E4B5ABC51BCC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76774E11-0F3D-41C9-8333-040101C92C7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e62439de-604f-4e5f-a8ee-ff1e6d3ae8d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>